--- a/Data/Habitat_Data/Degraded_Floodplain_Data.xlsx
+++ b/Data/Habitat_Data/Degraded_Floodplain_Data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Habitat_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD74CB45-7D2C-4590-BBC9-10AEB31A5815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D430C-B430-4700-BA41-7BA2319FDB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2412" yWindow="1764" windowWidth="20460" windowHeight="9720" xr2:uid="{FBB0F0DC-9A71-45F1-986C-5D94B5A4BE11}"/>
+    <workbookView xWindow="936" yWindow="1248" windowWidth="20928" windowHeight="10668" xr2:uid="{FBB0F0DC-9A71-45F1-986C-5D94B5A4BE11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1176,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9A54F0-B4BA-4701-9039-4D6F11410A59}">
   <dimension ref="A1:C254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3980,6 +3983,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{8B9A54F0-B4BA-4701-9039-4D6F11410A59}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
